--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA9405F-61A5-4ED5-8F01-C2667AD2FA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86F74E-140C-45F8-98B9-22E43526E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -945,7 +945,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="18">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1043,7 +1043,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="18">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1141,7 +1141,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="18">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
       <c r="E20" s="10"/>
       <c r="G20" s="18">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45358.399299884259</v>
+        <v>45365.379262847222</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1226,7 +1226,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="20">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="20">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="20">
         <v>0</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D21">
         <f>SUM(Táblázat3[2023.03.07])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <f>SUM(Táblázat3[2024.03.14])</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86F74E-140C-45F8-98B9-22E43526E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B00694-7C37-4C6D-B1DA-57ABBFE90A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -987,7 +987,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="18">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1015,7 +1015,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="18">
         <f>VLOOKUP(A9,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="18">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45365.379262847222</v>
+        <v>45379.397832754628</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1226,7 +1226,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="20">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="O9">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="20">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="E21">
         <f>SUM(Táblázat3[2024.03.14])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <f>SUM(Táblázat3[2024.03.21])</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B00694-7C37-4C6D-B1DA-57ABBFE90A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9490C-F359-4753-A493-55F0A2AED83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -877,7 +877,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +945,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="18">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1113,7 +1113,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="18">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1141,7 +1141,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="18">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45379.397832754628</v>
+        <v>45386.367934837966</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1222,11 +1222,11 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="20">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="20">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="20">
         <v>0</v>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="G21">
         <f>SUM(Táblázat3[2024.03.28])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f>SUM(Táblázat3[2024.04.04])</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9490C-F359-4753-A493-55F0A2AED83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBD270-C99E-4E8A-AC23-E48BF4E9E571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C4"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="18">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="18">
         <f>VLOOKUP(A12,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1071,7 +1071,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="18">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="18">
         <f>VLOOKUP(A15,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45386.367934837966</v>
+        <v>45400.645850694447</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1226,7 +1226,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="20">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="O12">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="20">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="20">
         <v>0</v>
@@ -2346,11 +2346,11 @@
       </c>
       <c r="H21">
         <f>SUM(Táblázat3[2024.04.04])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <f>SUM(Táblázat3[2024.04.11])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <f>SUM(Táblázat3[2024.04.18])</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FBD270-C99E-4E8A-AC23-E48BF4E9E571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6F098-B7B6-4AA2-A8BA-18BA9DC928BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -877,7 +877,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1043,7 +1043,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="18">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1085,7 +1085,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1155,7 +1155,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="18">
         <f>VLOOKUP(A19,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1176,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45400.645850694447</v>
+        <v>45414.390831712961</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1222,11 +1222,11 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="20">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="20">
         <v>0</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="O19">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="20">
         <v>0</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K21">
         <f>SUM(Táblázat3[2024.04.25])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <f>SUM(Táblázat3[2024.05.02])</f>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6F098-B7B6-4AA2-A8BA-18BA9DC928BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE1618-ADB3-40BD-986E-F64E37B6FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
     <sheet name="Csütörtöki Számoló" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>Név</t>
   </si>
@@ -68,21 +69,12 @@
     <t>ZH 1</t>
   </si>
   <si>
-    <t>Összesen</t>
-  </si>
-  <si>
-    <t>Összesen [%]</t>
-  </si>
-  <si>
     <t>NK</t>
   </si>
   <si>
     <t>CHEKSUM</t>
   </si>
   <si>
-    <t>ZH 1+</t>
-  </si>
-  <si>
     <t>Balogh Levente</t>
   </si>
   <si>
@@ -228,6 +220,18 @@
   </si>
   <si>
     <t>2024.05.16</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Jegy</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>Pont</t>
   </si>
 </sst>
 </file>
@@ -304,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -376,11 +380,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -448,14 +467,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -477,12 +499,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -514,10 +530,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:T21" totalsRowCount="1" headerRowDxfId="8">
-  <autoFilter ref="A2:T20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="7" totalsRowDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q21" totalsRowCount="1" headerRowDxfId="5">
+  <autoFilter ref="A2:Q20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="1"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.02.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.02.22])</totalsRowFormula>
     </tableColumn>
@@ -557,18 +573,13 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.05.16" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.05.16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="6">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{165AEBBF-1789-43C7-BA9C-2F3A140C4EE6}" name="Összesen" dataDxfId="4" totalsRowDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{7151E899-82F5-4E45-A6E8-D3B0BDD66E8E}" name="Összesen [%]" dataDxfId="3">
-      <calculatedColumnFormula>Táblázat3[[#This Row],[Összesen]]/20</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{0640C8A2-607C-4481-9DE1-516A04491227}" name="ZH 1+"/>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -877,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +933,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -931,12 +942,12 @@
       <c r="F3" s="4"/>
       <c r="G3" s="18">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
@@ -945,12 +956,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="18">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -959,12 +970,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="18">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
@@ -978,7 +989,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -992,7 +1003,7 @@
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
@@ -1001,12 +1012,12 @@
       <c r="F8" s="4"/>
       <c r="G8" s="18">
         <f>VLOOKUP(A8,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -1020,7 +1031,7 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
@@ -1034,7 +1045,7 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
@@ -1043,12 +1054,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="18">
         <f>VLOOKUP(A11,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
@@ -1062,7 +1073,7 @@
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
@@ -1076,7 +1087,7 @@
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
@@ -1085,12 +1096,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="18">
         <f>VLOOKUP(A14,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="9"/>
@@ -1104,7 +1115,7 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="9"/>
@@ -1113,12 +1124,12 @@
       <c r="F16" s="4"/>
       <c r="G16" s="18">
         <f>VLOOKUP(A16,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="9"/>
@@ -1132,7 +1143,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="9"/>
@@ -1141,12 +1152,12 @@
       <c r="F18" s="4"/>
       <c r="G18" s="18">
         <f>VLOOKUP(A18,Táblázat3[],15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
@@ -1160,13 +1171,13 @@
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="10"/>
       <c r="E20" s="10"/>
       <c r="G20" s="18">
         <f>VLOOKUP(A20,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1176,7 +1187,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45414.390831712961</v>
+        <v>45428.566651388886</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1220,13 +1231,13 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,12 +1248,9 @@
     <col min="8" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
         <v>2023</v>
       </c>
@@ -1262,52 +1270,49 @@
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>6</v>
@@ -1318,20 +1323,11 @@
       <c r="Q2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -1366,26 +1362,26 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="20">
         <v>0</v>
       </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="4"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1421,26 +1417,26 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>2</v>
-      </c>
-      <c r="P4" s="20">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1473,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1483,19 +1479,19 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="21">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1541,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="P6" s="20">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1596,16 +1592,16 @@
         <v>1</v>
       </c>
       <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1638,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1648,19 +1644,19 @@
       </c>
       <c r="O8">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1706,16 +1702,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="20">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1763,14 +1759,14 @@
       <c r="P10" s="20">
         <v>0</v>
       </c>
-      <c r="T10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1806,26 +1802,26 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>2</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-      <c r="T11" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1871,16 +1867,16 @@
         <v>1</v>
       </c>
       <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1926,16 +1922,16 @@
         <v>2</v>
       </c>
       <c r="P13" s="20">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1974,23 +1970,23 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>2</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2023,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2033,19 +2029,19 @@
       </c>
       <c r="O15">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="20">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2081,26 +2077,26 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" s="20">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2146,16 +2142,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="20">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2188,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2198,19 +2194,19 @@
       </c>
       <c r="O18">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="20">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>46</v>
-      </c>
-      <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2258,13 +2254,13 @@
       <c r="P19" s="20">
         <v>0</v>
       </c>
-      <c r="T19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2297,28 +2293,28 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0</v>
-      </c>
-      <c r="T20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <f>SUM(Táblázat3[2024.02.22])</f>
@@ -2362,29 +2358,28 @@
       </c>
       <c r="L21">
         <f>SUM(Táblázat3[2024.05.02])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <f>SUM(Táblázat3[2024.05.09])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <f>SUM(Táblázat3[2024.05.16])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="P21" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="20"/>
+        <v>4.8214285714285712</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2393,4 +2388,290 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519DC893-B0DC-46F4-94CF-5A135BDED5FB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="28">
+        <v>6</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="28">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="28">
+        <v>6</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="28">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="28">
+        <v>9</v>
+      </c>
+      <c r="D11" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="28">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="28">
+        <v>1</v>
+      </c>
+      <c r="D15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="28">
+        <v>10</v>
+      </c>
+      <c r="D16" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="28">
+        <v>6</v>
+      </c>
+      <c r="D17" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/materials/AI/jelenlet/jelenlet_2024.xlsx
+++ b/materials/AI/jelenlet/jelenlet_2024.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\AI\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE1618-ADB3-40BD-986E-F64E37B6FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC0806-68F0-46A5-A5A7-DB5483767644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
     <sheet name="Csütörtöki Számoló" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Stat" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,6 +452,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,12 +473,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,6 +480,12 @@
   <dxfs count="6">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -499,12 +505,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -533,7 +533,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}" name="Táblázat3" displayName="Táblázat3" ref="A2:Q21" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A2:Q20" xr:uid="{05EC0C74-DD78-463D-AF64-866E115FCBD2}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AC4A2E64-5B3A-4A78-8887-FB0803873F74}" name="Név" totalsRowLabel="CHEKSUM" dataDxfId="4" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{81CB4C41-FCE0-45F1-8D24-A54F241D9EBF}" name="2024.02.22" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.02.22])</totalsRowFormula>
     </tableColumn>
@@ -573,11 +573,11 @@
     <tableColumn id="14" xr3:uid="{B988FA89-1E4E-4372-AD4F-C4E869C0989B}" name="2024.05.16" totalsRowFunction="custom">
       <totalsRowFormula>SUM(Táblázat3[2024.05.16])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="19" xr3:uid="{4DFFAA07-C216-428D-BFF6-4165AD3A414A}" name="HIÁNYZÁS" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Táblázat3[HIÁNYZÁS])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{A64515D3-1A98-4C9E-A999-EB8283597F31}" name="ZH 1" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(Táblázat3[ZH 1])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{99355BC7-039B-4FC4-9826-FB67580683F4}" name="NK"/>
@@ -904,15 +904,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1185,12 +1185,12 @@
         <v>5</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="23">
+      <c r="E21" s="25">
         <f ca="1">NOW()</f>
-        <v>45428.566651388886</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+        <v>45720.418317939817</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
@@ -1203,16 +1203,16 @@
         <v>4</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1251,25 +1251,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26">
+      <c r="A1" s="28">
         <v>2023</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2395,7 +2395,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D19"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,268 +2405,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="23">
         <v>6</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="23">
         <v>6</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="23">
         <v>6</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="23">
         <v>7</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28">
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="23">
         <v>9</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="23">
         <v>10</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="23">
         <v>4.5</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="28">
-        <v>1</v>
-      </c>
-      <c r="D15" s="28">
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="23">
         <v>10</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="23">
         <v>6</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="28">
-        <v>0</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="C18" s="23">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="23" t="s">
         <v>63</v>
       </c>
     </row>
